--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>Catégorie</t>
   </si>
@@ -71,16 +71,168 @@
     <t>font-size trop petite</t>
   </si>
   <si>
-    <t>balise aria</t>
-  </si>
-  <si>
     <t>meta title et description</t>
   </si>
   <si>
-    <t>page 2 text ilisible h1 et p</t>
-  </si>
-  <si>
     <t xml:space="preserve">page 2 nav hors champ </t>
+  </si>
+  <si>
+    <t>mots clés pas exploités</t>
+  </si>
+  <si>
+    <t>img trop grande</t>
+  </si>
+  <si>
+    <t>url page 2</t>
+  </si>
+  <si>
+    <t>contenu vide</t>
+  </si>
+  <si>
+    <t>balise meta robot</t>
+  </si>
+  <si>
+    <t>pas mis en place</t>
+  </si>
+  <si>
+    <t>peu faire fuir l'utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Googlebot depense plus 
+de ressource
+</t>
+  </si>
+  <si>
+    <t>img texte non reponsive 
+mobile</t>
+  </si>
+  <si>
+    <t>pas besoin de Javascript
+pour un site vitrine</t>
+  </si>
+  <si>
+    <t>privilégier HTML et CSS
+pour réduire le budget de 
+crawl</t>
+  </si>
+  <si>
+    <t>mettre en place une balise
+meta robots pour
+l'indexation</t>
+  </si>
+  <si>
+    <t>metttre du contenu descriptif avec mot cle</t>
+  </si>
+  <si>
+    <t>mobile responsive</t>
+  </si>
+  <si>
+    <t>minifier le CSS</t>
+  </si>
+  <si>
+    <t>CSS trop lourd</t>
+  </si>
+  <si>
+    <t>CSS non minifier</t>
+  </si>
+  <si>
+    <t>exploiter mot clé dans l'url</t>
+  </si>
+  <si>
+    <t>pas de mot clé dans l'url</t>
+  </si>
+  <si>
+    <t>redimensionner img</t>
+  </si>
+  <si>
+    <t>"Entreprise" et "Lyon" pas
+assez exploités</t>
+  </si>
+  <si>
+    <t>Utiliser plus les mots clés
+dans le contenu</t>
+  </si>
+  <si>
+    <t>h3 avant h2, mot clé non 
+présent dans h2</t>
+  </si>
+  <si>
+    <t>un seul h1 par page, 
+mettre mot clé dans h1 et h2</t>
+  </si>
+  <si>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>Perceptible 
+Règle 1,4,3 contraste</t>
+  </si>
+  <si>
+    <t>Utilisable
+Règle 2,4,7 visibilité du focus</t>
+  </si>
+  <si>
+    <t>Utilisable
+Règle 2,4,3 parcours du focus</t>
+  </si>
+  <si>
+    <t>Perceptible 
+Règle 1,4,4
+redimensionnement du texte</t>
+  </si>
+  <si>
+    <t>Perceptible
+Règle 1,1,1 contenu non textuel</t>
+  </si>
+  <si>
+    <t>Compréhensible
+Règle 3,1,1 langue de la page</t>
+  </si>
+  <si>
+    <t>Perceptible
+Règle 1,4,9 texte sous forme d'image</t>
+  </si>
+  <si>
+    <t>font-size trop petite pour
+la lisibilité</t>
+  </si>
+  <si>
+    <t>le parcous au focus avec
+le clavier est incohérent</t>
+  </si>
+  <si>
+    <t>les alt ne décrivent pas les
+éléments</t>
+  </si>
+  <si>
+    <t>focus non visible</t>
+  </si>
+  <si>
+    <t>lang non définit
+problématique pour les
+lecteurs</t>
+  </si>
+  <si>
+    <t>contraste trop faible</t>
+  </si>
+  <si>
+    <t>empeche de modifier
+la taille, police, couleur</t>
+  </si>
+  <si>
+    <t>nav bar inutilisable à la 
+souris</t>
+  </si>
+  <si>
+    <t>texte illisible</t>
+  </si>
+  <si>
+    <t>page 2 text illisible h1 et p</t>
+  </si>
+  <si>
+    <t>donc trop lourde
+retarde le chargement de
+la page</t>
   </si>
 </sst>
 </file>
@@ -148,14 +300,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -425,137 +594,348 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="b">
+      <c r="C2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="F2" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="b">
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="F3" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="b">
+      <c r="C4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="F4" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="b">
+      <c r="C5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="F5" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="b">
+      <c r="C6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="b">
+      <c r="F7" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="F8" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4" t="b">
+      <c r="C18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4" t="b">
+    <row r="23" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4" t="b">
+    <row r="25" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1523,7 +1903,6 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -15,16 +15,12 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgajbA1sRpj4h647px0Becg4xhqcQ=="/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>Catégorie</t>
   </si>
@@ -233,6 +229,30 @@
     <t>donc trop lourde
 retarde le chargement de
 la page</t>
+  </si>
+  <si>
+    <t>FAIT</t>
+  </si>
+  <si>
+    <t>mot clé dans image non
+exploité</t>
+  </si>
+  <si>
+    <t>remplacer image par du 
+texte</t>
+  </si>
+  <si>
+    <t>texture inutile page 2</t>
+  </si>
+  <si>
+    <t>ralentit chargement de la 
+page et mauvais pour le 
+contraste</t>
+  </si>
+  <si>
+    <t>eviter de surcharger en 
+texture pour faire un design non pertinent et penser au
+contraste</t>
   </si>
 </sst>
 </file>
@@ -300,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,9 +329,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -543,7 +560,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -595,7 +612,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -604,15 +621,18 @@
       <c r="C2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="8" t="b">
+      <c r="E2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -621,32 +641,35 @@
       <c r="C3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="8" t="b">
+      <c r="E3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="8" t="b">
+      <c r="E4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -655,106 +678,112 @@
       <c r="C5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="8" t="b">
+      <c r="E5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="8" t="b">
+      <c r="E7" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="8" t="b">
+      <c r="E8" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="8" t="b">
+      <c r="E9" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="8" t="b">
+      <c r="E10" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="8" t="b">
+      <c r="E11" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -772,7 +801,7 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>41</v>
       </c>
@@ -782,55 +811,58 @@
       <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -840,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>41</v>
       </c>
@@ -857,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
@@ -867,18 +899,18 @@
       <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E22" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -891,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
@@ -908,34 +940,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -15,12 +15,11 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>Catégorie</t>
   </si>
@@ -74,9 +73,6 @@
   </si>
   <si>
     <t>mots clés pas exploités</t>
-  </si>
-  <si>
-    <t>img trop grande</t>
   </si>
   <si>
     <t>url page 2</t>
@@ -138,9 +134,6 @@
     <t>pas de mot clé dans l'url</t>
   </si>
   <si>
-    <t>redimensionner img</t>
-  </si>
-  <si>
     <t>"Entreprise" et "Lyon" pas
 assez exploités</t>
   </si>
@@ -231,9 +224,6 @@
 la page</t>
   </si>
   <si>
-    <t>FAIT</t>
-  </si>
-  <si>
     <t>mot clé dans image non
 exploité</t>
   </si>
@@ -253,6 +243,14 @@
     <t>eviter de surcharger en 
 texture pour faire un design non pertinent et penser au
 contraste</t>
+  </si>
+  <si>
+    <t>img trop grande et img
+en format bmp</t>
+  </si>
+  <si>
+    <t>redimensionner img et
+convertir bmp en jpeg</t>
   </si>
 </sst>
 </file>
@@ -560,7 +558,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -619,16 +617,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -639,16 +634,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -659,13 +651,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -676,13 +668,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -693,16 +685,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E6" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -713,13 +702,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -730,13 +719,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -747,16 +736,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -767,7 +753,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="7" t="b">
         <v>1</v>
@@ -778,10 +764,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="7" t="b">
         <v>1</v>
@@ -801,207 +787,198 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="E20" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="D22" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E23" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="E24" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="E25" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E26" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H26" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="C27" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E27" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>Catégorie</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Accesibilité</t>
-  </si>
-  <si>
-    <t>footer contraste color</t>
   </si>
   <si>
     <t>container bloc-lg contraste</t>
@@ -249,15 +246,53 @@
 en format bmp</t>
   </si>
   <si>
-    <t>redimensionner img et
+    <t>footer et btn contraste 
+color</t>
+  </si>
+  <si>
+    <t>background color inutile
+dans l'index sur les block
+avec img</t>
+  </si>
+  <si>
+    <t>ralentit le chargement de 
+la page</t>
+  </si>
+  <si>
+    <t>ne pas ajouter du contenu
+non visible inutile</t>
+  </si>
+  <si>
+    <t>redimensionner et
+compresser img et
 convertir bmp en jpeg</t>
+  </si>
+  <si>
+    <t>pas de label associé aux 
+forms</t>
+  </si>
+  <si>
+    <t>Compréhensible
+Règle 3,3,2 etiquettes ou 
+instruction</t>
+  </si>
+  <si>
+    <t>le lecteur d'ecran ne peut 
+pas savoir quel est le
+nom de l'input</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -283,6 +318,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -315,10 +356,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,8 +382,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -558,7 +607,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -613,17 +662,17 @@
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
+      <c r="B2" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -631,16 +680,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -648,16 +697,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -665,16 +714,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -682,16 +731,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -699,16 +748,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -716,16 +765,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -733,16 +782,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -750,10 +799,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="7" t="b">
         <v>1</v>
@@ -764,18 +813,31 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="E12" s="3"/>
+    <row r="12" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="3"/>
@@ -787,198 +849,250 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E18" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="E19" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E20" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="D22" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="E23" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="E24" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="E25" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="E26" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="E27" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F27" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1947,6 +2061,20 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F17" r:id="rId1"/>
+    <hyperlink ref="F18" r:id="rId2"/>
+    <hyperlink ref="F19" r:id="rId3"/>
+    <hyperlink ref="F21" r:id="rId4"/>
+    <hyperlink ref="F22" r:id="rId5"/>
+    <hyperlink ref="F23" r:id="rId6"/>
+    <hyperlink ref="F26" r:id="rId7"/>
+    <hyperlink ref="F28" r:id="rId8"/>
+    <hyperlink ref="F27" r:id="rId9"/>
+    <hyperlink ref="F25" r:id="rId10"/>
+    <hyperlink ref="F24" r:id="rId11"/>
+    <hyperlink ref="F20" r:id="rId12"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>Catégorie</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Accesibilité</t>
   </si>
   <si>
-    <t>container bloc-lg contraste</t>
-  </si>
-  <si>
     <t>html lang default</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
   </si>
   <si>
     <t>structure mauvaise</t>
-  </si>
-  <si>
-    <t>font-size trop petite</t>
   </si>
   <si>
     <t>meta title et description</t>
@@ -286,6 +280,10 @@
   </si>
   <si>
     <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques</t>
+  </si>
+  <si>
+    <t>font-size trop petite pour 
+les balises p</t>
   </si>
 </sst>
 </file>
@@ -604,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -663,50 +661,50 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>51</v>
+      <c r="C3" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E3" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>50</v>
+      <c r="C4" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E4" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -716,17 +714,17 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>49</v>
+      <c r="C5" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="E5" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -734,16 +732,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E6" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -751,33 +749,33 @@
         <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
+      <c r="B8" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
@@ -785,59 +783,45 @@
         <v>13</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E9" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>55</v>
+      <c r="B11" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="7" t="b">
+        <v>68</v>
+      </c>
+      <c r="E11" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="F11" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="3"/>
@@ -845,250 +829,248 @@
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E17" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E18" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E19" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>67</v>
+        <v>36</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E21" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="E24" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E25" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E26" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E27" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
+      <c r="F27" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2059,21 +2041,20 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F17" r:id="rId1"/>
-    <hyperlink ref="F18" r:id="rId2"/>
-    <hyperlink ref="F19" r:id="rId3"/>
-    <hyperlink ref="F21" r:id="rId4"/>
-    <hyperlink ref="F22" r:id="rId5"/>
-    <hyperlink ref="F23" r:id="rId6"/>
-    <hyperlink ref="F26" r:id="rId7"/>
-    <hyperlink ref="F28" r:id="rId8"/>
-    <hyperlink ref="F27" r:id="rId9"/>
-    <hyperlink ref="F25" r:id="rId10"/>
-    <hyperlink ref="F24" r:id="rId11"/>
-    <hyperlink ref="F20" r:id="rId12"/>
+    <hyperlink ref="F16" r:id="rId1"/>
+    <hyperlink ref="F17" r:id="rId2"/>
+    <hyperlink ref="F18" r:id="rId3"/>
+    <hyperlink ref="F20" r:id="rId4"/>
+    <hyperlink ref="F21" r:id="rId5"/>
+    <hyperlink ref="F22" r:id="rId6"/>
+    <hyperlink ref="F25" r:id="rId7"/>
+    <hyperlink ref="F27" r:id="rId8"/>
+    <hyperlink ref="F26" r:id="rId9"/>
+    <hyperlink ref="F24" r:id="rId10"/>
+    <hyperlink ref="F23" r:id="rId11"/>
+    <hyperlink ref="F19" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
